--- a/data/figs/projects/projects.xlsx
+++ b/data/figs/projects/projects.xlsx
@@ -224,7 +224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDFAAFC"/>
+        <fgColor rgb="FFA3937E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,13 +236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7AC9D8"/>
+        <fgColor rgb="FFD388CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7B7FF4"/>
+        <fgColor rgb="FFC7BF8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,85 +254,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFBCCF"/>
+        <fgColor rgb="FF7DD3F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC3938E"/>
+        <fgColor rgb="FF92FD84"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBD7B7"/>
+        <fgColor rgb="FFF580EF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFADFFB7"/>
+        <fgColor rgb="FFB6DAA7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88C07B"/>
+        <fgColor rgb="FFD2FDBB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7BF88C"/>
+        <fgColor rgb="FFB8F7F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3FEDF"/>
+        <fgColor rgb="FF7D80B9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBF0EF"/>
+        <fgColor rgb="FF9CB9CF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF94E9FF"/>
+        <fgColor rgb="FF7AF0C5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFD7DC4"/>
+        <fgColor rgb="FFEF8979"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8799B5"/>
+        <fgColor rgb="FFF9B699"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D9AB"/>
+        <fgColor rgb="FF7EB693"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAF7ADC"/>
+        <fgColor rgb="FF849BFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8B19A"/>
+        <fgColor rgb="FFE8ED79"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>

--- a/data/figs/projects/projects.xlsx
+++ b/data/figs/projects/projects.xlsx
@@ -224,7 +224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA3937E"/>
+        <fgColor rgb="FF84B17A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,13 +236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD388CC"/>
+        <fgColor rgb="FFF4FAE5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC7BF8A"/>
+        <fgColor rgb="FFA6EC84"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,85 +254,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7DD3F1"/>
+        <fgColor rgb="FFCFD2B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92FD84"/>
+        <fgColor rgb="FF7CECB9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF580EF"/>
+        <fgColor rgb="FFFFF686"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6DAA7"/>
+        <fgColor rgb="FFF2A5C3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD2FDBB"/>
+        <fgColor rgb="FF7EF7FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB8F7F5"/>
+        <fgColor rgb="FFF67BF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7D80B9"/>
+        <fgColor rgb="FF94B5D2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9CB9CF"/>
+        <fgColor rgb="FFABF1CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7AF0C5"/>
+        <fgColor rgb="FFCB9B9B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEF8979"/>
+        <fgColor rgb="FFBADAF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9B699"/>
+        <fgColor rgb="FFA07A8C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7EB693"/>
+        <fgColor rgb="FFFB8C81"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF849BFF"/>
+        <fgColor rgb="FF7F8CB3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8ED79"/>
+        <fgColor rgb="FFEAC68D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>

--- a/data/figs/projects/projects.xlsx
+++ b/data/figs/projects/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="56">
   <si>
     <t>Apr-2019</t>
   </si>
@@ -100,31 +100,37 @@
     <t>Parallel Monte Carlo</t>
   </si>
   <si>
+    <t>Probabilistic FEM</t>
+  </si>
+  <si>
     <t>Streaming healthcare analytics</t>
   </si>
   <si>
     <t>Team management</t>
   </si>
   <si>
+    <t>UQM^3</t>
+  </si>
+  <si>
     <t>Uncertainty in Government Modelling</t>
   </si>
   <si>
     <t>Urban observatory spatial sampling</t>
   </si>
   <si>
-    <t>May Yong (0.5)</t>
-  </si>
-  <si>
-    <t>Louise Bowler (0.5)</t>
-  </si>
-  <si>
-    <t>Sarah Gibson (0.5)</t>
-  </si>
-  <si>
-    <t>Radka Jersakova (0.5)</t>
-  </si>
-  <si>
-    <t>Tomas Lazauskas (0.5)</t>
+    <t>May Yong (0.6)</t>
+  </si>
+  <si>
+    <t>Louise Bowler (0.6)</t>
+  </si>
+  <si>
+    <t>Sarah Gibson (0.6)</t>
+  </si>
+  <si>
+    <t>Radka Jersakova (0.6)</t>
+  </si>
+  <si>
+    <t>Tomas Lazauskas (0.6)</t>
   </si>
   <si>
     <t>Miguel Morin (0.6)</t>
@@ -133,58 +139,49 @@
     <t>Evelina Gabasova (0.6)</t>
   </si>
   <si>
-    <t>Giovanni Colavizza (0.2)</t>
-  </si>
-  <si>
-    <t>James Robinson (0.5)</t>
-  </si>
-  <si>
-    <t>Nick Barlow (0.5)</t>
-  </si>
-  <si>
-    <t>Miguel Morin (0.5)</t>
-  </si>
-  <si>
-    <t>Evelina Gabasova (0.5)</t>
-  </si>
-  <si>
-    <t>Jim Madge (0.5)</t>
-  </si>
-  <si>
-    <t>Camila Rangel Smith (0.5)</t>
+    <t>Giovanni Colavizza (0.3)</t>
+  </si>
+  <si>
+    <t>James Robinson (0.6)</t>
+  </si>
+  <si>
+    <t>Nick Barlow (0.6)</t>
+  </si>
+  <si>
+    <t>Jim Madge (0.6)</t>
+  </si>
+  <si>
+    <t>Camila Rangel Smith (0.6)</t>
   </si>
   <si>
     <t>RESOURCE REQUIRED (0.6)</t>
   </si>
   <si>
-    <t>Louise Bowler (0.6)</t>
-  </si>
-  <si>
-    <t>David Beavan (1.0)</t>
-  </si>
-  <si>
-    <t>Timothy Hobson (0.5)</t>
-  </si>
-  <si>
-    <t>Giovanni Colavizza (0.5)</t>
+    <t>David Beavan (1.2)</t>
+  </si>
+  <si>
+    <t>Timothy Hobson (0.6)</t>
+  </si>
+  <si>
+    <t>Giovanni Colavizza (0.6)</t>
   </si>
   <si>
     <t>James Hetherington (0.1)</t>
   </si>
   <si>
+    <t>James Geddes (0.6)</t>
+  </si>
+  <si>
     <t>Oliver Strickson (0.6)</t>
   </si>
   <si>
-    <t>James Geddes (0.5)</t>
-  </si>
-  <si>
-    <t>Camila Rangel Smith (0.6)</t>
+    <t>Eric Daub (0.6)</t>
+  </si>
+  <si>
+    <t>Eric Daub (0.5)</t>
   </si>
   <si>
     <t>RESOURCE REQUIRED (0.5)</t>
-  </si>
-  <si>
-    <t>James Robinson (0.4)</t>
   </si>
 </sst>
 </file>
@@ -215,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,7 +221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF84B17A"/>
+        <fgColor rgb="FFD481C2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,13 +233,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4FAE5"/>
+        <fgColor rgb="FFB2FD8B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA6EC84"/>
+        <fgColor rgb="FFFC92EA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,85 +251,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFD2B4"/>
+        <fgColor rgb="FF85E981"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7CECB9"/>
+        <fgColor rgb="FFA495F8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF686"/>
+        <fgColor rgb="FFFFE48E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2A5C3"/>
+        <fgColor rgb="FF7F80C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7EF7FF"/>
+        <fgColor rgb="FF88F3F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF67BF7"/>
+        <fgColor rgb="FFFD837D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF94B5D2"/>
+        <fgColor rgb="FF94CDBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFABF1CC"/>
+        <fgColor rgb="FFF5ACAD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCB9B9B"/>
+        <fgColor rgb="FFD0FEBE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBADAF7"/>
+        <fgColor rgb="FF8F927F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA07A8C"/>
+        <fgColor rgb="FFFEF8EC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFB8C81"/>
+        <fgColor rgb="FFC9C2CA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7F8CB3"/>
+        <fgColor rgb="FF82AFA6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAC68D"/>
+        <fgColor rgb="FFCF9385"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDED1FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -424,6 +427,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -720,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -798,10 +804,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -823,25 +829,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>55</v>
@@ -860,25 +866,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -895,28 +901,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -932,10 +938,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>46</v>
@@ -975,40 +981,40 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O8" s="3"/>
     </row>
@@ -1020,31 +1026,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1059,31 +1065,31 @@
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1098,31 +1104,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1137,40 +1143,40 @@
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -1180,10 +1186,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1310,43 +1316,43 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1357,43 +1363,43 @@
         <v>1</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1402,43 +1408,43 @@
         <v>2</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1447,40 +1453,40 @@
         <v>3</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O20" s="3"/>
     </row>
@@ -1490,31 +1496,31 @@
         <v>4</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1529,31 +1535,31 @@
         <v>1</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -1566,31 +1572,31 @@
         <v>2</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1603,31 +1609,31 @@
         <v>3</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1642,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1665,10 +1671,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1690,10 +1696,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1714,33 +1720,21 @@
       <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="C28" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -1753,32 +1747,32 @@
       <c r="B29" s="1">
         <v>1</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>51</v>
+      <c r="C29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1792,42 +1786,36 @@
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>54</v>
-      </c>
+      <c r="C30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15">
@@ -1837,37 +1825,109 @@
       <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>41</v>
-      </c>
+      <c r="C31" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/data/figs/projects/projects.xlsx
+++ b/data/figs/projects/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="60">
   <si>
     <t>Apr-2019</t>
   </si>
@@ -61,12 +61,12 @@
     <t>AIDA-Lloyds</t>
   </si>
   <si>
+    <t>Auto DL</t>
+  </si>
+  <si>
     <t>Bayesian Performance Tuning</t>
   </si>
   <si>
-    <t>Biobank algorithm</t>
-  </si>
-  <si>
     <t>CWTS - Leiden</t>
   </si>
   <si>
@@ -91,6 +91,9 @@
     <t>Living With Machines</t>
   </si>
   <si>
+    <t>Machine learning for cancer</t>
+  </si>
+  <si>
     <t>NATS</t>
   </si>
   <si>
@@ -118,70 +121,79 @@
     <t>Urban observatory spatial sampling</t>
   </si>
   <si>
-    <t>May Yong (0.6)</t>
-  </si>
-  <si>
-    <t>Louise Bowler (0.6)</t>
-  </si>
-  <si>
-    <t>Sarah Gibson (0.6)</t>
-  </si>
-  <si>
-    <t>Radka Jersakova (0.6)</t>
-  </si>
-  <si>
-    <t>Tomas Lazauskas (0.6)</t>
-  </si>
-  <si>
-    <t>Miguel Morin (0.6)</t>
-  </si>
-  <si>
-    <t>Evelina Gabasova (0.6)</t>
-  </si>
-  <si>
-    <t>Giovanni Colavizza (0.3)</t>
-  </si>
-  <si>
-    <t>James Robinson (0.6)</t>
-  </si>
-  <si>
-    <t>Nick Barlow (0.6)</t>
-  </si>
-  <si>
-    <t>Jim Madge (0.6)</t>
-  </si>
-  <si>
-    <t>Camila Rangel Smith (0.6)</t>
-  </si>
-  <si>
-    <t>RESOURCE REQUIRED (0.6)</t>
-  </si>
-  <si>
-    <t>David Beavan (1.2)</t>
-  </si>
-  <si>
-    <t>Timothy Hobson (0.6)</t>
-  </si>
-  <si>
-    <t>Giovanni Colavizza (0.6)</t>
+    <t>May Yong (0.5)</t>
+  </si>
+  <si>
+    <t>Louise Bowler (0.5)</t>
+  </si>
+  <si>
+    <t>Sarah Gibson (0.5)</t>
+  </si>
+  <si>
+    <t>Radka Jersakova (0.5)</t>
+  </si>
+  <si>
+    <t>Tomas Lazauskas (0.5)</t>
+  </si>
+  <si>
+    <t>Giovanni Colavizza (0.2)</t>
+  </si>
+  <si>
+    <t>James Robinson (0.5)</t>
+  </si>
+  <si>
+    <t>Nick Barlow (0.5)</t>
+  </si>
+  <si>
+    <t>Miguel Morin (0.5)</t>
+  </si>
+  <si>
+    <t>Evelina Gabasova (0.5)</t>
+  </si>
+  <si>
+    <t>Jim Madge (0.5)</t>
+  </si>
+  <si>
+    <t>Camila Rangel Smith (0.5)</t>
+  </si>
+  <si>
+    <t>RESOURCE REQUIRED (0.5)</t>
+  </si>
+  <si>
+    <t>David Beavan (1.0)</t>
+  </si>
+  <si>
+    <t>Kasra Hosseini (0.5)</t>
+  </si>
+  <si>
+    <t>Timothy Hobson (0.5)</t>
+  </si>
+  <si>
+    <t>Giovanni Colavizza (0.5)</t>
   </si>
   <si>
     <t>James Hetherington (0.1)</t>
   </si>
   <si>
-    <t>James Geddes (0.6)</t>
-  </si>
-  <si>
-    <t>Oliver Strickson (0.6)</t>
-  </si>
-  <si>
-    <t>Eric Daub (0.6)</t>
+    <t>James Geddes (0.5)</t>
+  </si>
+  <si>
+    <t>Oliver Strickson (0.5)</t>
   </si>
   <si>
     <t>Eric Daub (0.5)</t>
   </si>
   <si>
-    <t>RESOURCE REQUIRED (0.5)</t>
+    <t>Newcastle 01 (0.5)</t>
+  </si>
+  <si>
+    <t>Eric Daub (0.4)</t>
+  </si>
+  <si>
+    <t>RESOURCE REQUIRED (0.4)</t>
+  </si>
+  <si>
+    <t>Birmingham 01 (0.5)</t>
   </si>
 </sst>
 </file>
@@ -212,7 +224,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,7 +233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD481C2"/>
+        <fgColor rgb="FFD79E8C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,13 +245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB2FD8B"/>
+        <fgColor rgb="FF9297C6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFC92EA"/>
+        <fgColor rgb="FF79A698"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,91 +263,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF85E981"/>
+        <fgColor rgb="FFF3BFA9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA495F8"/>
+        <fgColor rgb="FFACD291"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE48E"/>
+        <fgColor rgb="FF8E7C88"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7F80C4"/>
+        <fgColor rgb="FF7CC5CF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88F3F2"/>
+        <fgColor rgb="FF7BA7F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFD837D"/>
+        <fgColor rgb="FFF27BBA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF94CDBF"/>
+        <fgColor rgb="FFBCBFD1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5ACAD"/>
+        <fgColor rgb="FF8FF67C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD0FEBE"/>
+        <fgColor rgb="FFCE89F9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8F927F"/>
+        <fgColor rgb="FFE8AAD8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFEF8EC"/>
+        <fgColor rgb="FFFEFFA0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9C2CA"/>
+        <fgColor rgb="FF79F3B9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF82AFA6"/>
+        <fgColor rgb="FFACFED1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCF9385"/>
+        <fgColor rgb="FFE2E5BC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDED1FC"/>
+        <fgColor rgb="FFCEF8FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFED3E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ADBF1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAA7DB3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -430,6 +460,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -726,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -781,10 +820,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -804,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -829,31 +868,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -866,25 +905,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -900,122 +939,98 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="E8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15">
@@ -1025,32 +1040,32 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>41</v>
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1064,32 +1079,32 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>42</v>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1103,32 +1118,32 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>43</v>
+      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1142,41 +1157,41 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>40</v>
+      <c r="C12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -1185,22 +1200,42 @@
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="C13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15">
@@ -1210,8 +1245,8 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>44</v>
+      <c r="C14" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1233,29 +1268,29 @@
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>45</v>
+      <c r="C15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1271,43 +1306,43 @@
         <v>1</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1316,287 +1351,287 @@
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="M20" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
         <v>4</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="C22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1604,176 +1639,204 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>51</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+      <c r="I25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>42</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1781,59 +1844,41 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>50</v>
-      </c>
+      <c r="C30" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>54</v>
       </c>
+      <c r="D31" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1847,98 +1892,348 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="C32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="C33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A39:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/figs/projects/projects.xlsx
+++ b/data/figs/projects/projects.xlsx
@@ -233,7 +233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD79E8C"/>
+        <fgColor rgb="FFC0FD7C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,13 +245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9297C6"/>
+        <fgColor rgb="FFA3D7D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF79A698"/>
+        <fgColor rgb="FFDEF9F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,109 +263,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3BFA9"/>
+        <fgColor rgb="FFBFB9F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFACD291"/>
+        <fgColor rgb="FF9B9AD7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8E7C88"/>
+        <fgColor rgb="FF7FE9A3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7CC5CF"/>
+        <fgColor rgb="FFF497EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7BA7F9"/>
+        <fgColor rgb="FFCB86FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF27BBA"/>
+        <fgColor rgb="FFF48BA6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBCBFD1"/>
+        <fgColor rgb="FF7BBCC1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8FF67C"/>
+        <fgColor rgb="FFCEB195"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCE89F9"/>
+        <fgColor rgb="FF83A988"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8AAD8"/>
+        <fgColor rgb="FFFEC2D2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFEFFA0"/>
+        <fgColor rgb="FF97D97B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF79F3B9"/>
+        <fgColor rgb="FF7AFDEB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFACFED1"/>
+        <fgColor rgb="FFB78A85"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2E5BC"/>
+        <fgColor rgb="FFFADBA5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCEF8FE"/>
+        <fgColor rgb="FFBA7FBE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFED3E8"/>
+        <fgColor rgb="FFE57F7A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9ADBF1"/>
+        <fgColor rgb="FFC5F4BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAA7DB3"/>
+        <fgColor rgb="FF7B86F6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
